--- a/TradeSimulation/data/Config-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Config-BuySellTrade.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D08AE-E47D-4529-99A7-9DD955786734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B0CCC-69A6-4B64-A35E-F45A1571FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
     <sheet name="THAI-Mar-May23" sheetId="7" r:id="rId2"/>
-    <sheet name="VN-0722" sheetId="6" r:id="rId3"/>
-    <sheet name="VN-1122" sheetId="5" r:id="rId4"/>
-    <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId5"/>
-    <sheet name="BuySell_Swing" sheetId="3" r:id="rId6"/>
-    <sheet name="Tech" sheetId="4" r:id="rId7"/>
+    <sheet name="THAIRally21" sheetId="8" r:id="rId3"/>
+    <sheet name="VNRally21" sheetId="9" r:id="rId4"/>
+    <sheet name="VN-0722" sheetId="6" r:id="rId5"/>
+    <sheet name="VN-1122" sheetId="5" r:id="rId6"/>
+    <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId7"/>
+    <sheet name="BuySell_Swing" sheetId="3" r:id="rId8"/>
+    <sheet name="Tech" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>trade_date</t>
   </si>
@@ -735,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E21B0-0AB8-4945-8D26-41FA090DDAC7}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1075,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2047-564B-4B60-B7A8-46B22C0EB157}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1144,12 +1146,231 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7F7564-9687-4926-AB29-E648F2238DDA}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>44160</v>
+      </c>
+      <c r="B2" s="13">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C108D-02C9-4908-8EC7-FD09AE9A63C6}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>44111</v>
+      </c>
+      <c r="B2" s="13">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2668CAC0-C61D-4E44-849E-AB5614A68443}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1234,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D46ADA-B82A-4796-98B1-65B8BB67968F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1329,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1411,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D99DDD9-AE9C-41BF-8AAC-074819DDF9C7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1534,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524087AF-A327-4165-8F4F-F78353AF99DB}">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/TradeSimulation/data/Config-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Config-BuySellTrade.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B0CCC-69A6-4B64-A35E-F45A1571FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4948525-868D-4BC6-B388-42473CA2F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
-    <sheet name="THAI-Mar-May23" sheetId="7" r:id="rId2"/>
-    <sheet name="THAIRally21" sheetId="8" r:id="rId3"/>
-    <sheet name="VNRally21" sheetId="9" r:id="rId4"/>
-    <sheet name="VN-0722" sheetId="6" r:id="rId5"/>
-    <sheet name="VN-1122" sheetId="5" r:id="rId6"/>
-    <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId7"/>
-    <sheet name="BuySell_Swing" sheetId="3" r:id="rId8"/>
-    <sheet name="Tech" sheetId="4" r:id="rId9"/>
+    <sheet name="ThaiNov22-Now23" sheetId="10" r:id="rId2"/>
+    <sheet name="THAI-Mar-May23" sheetId="7" r:id="rId3"/>
+    <sheet name="THAIRally21" sheetId="8" r:id="rId4"/>
+    <sheet name="VNRally21" sheetId="9" r:id="rId5"/>
+    <sheet name="VN-0722" sheetId="6" r:id="rId6"/>
+    <sheet name="VN-1122" sheetId="5" r:id="rId7"/>
+    <sheet name="BuySell_Buy_Hold" sheetId="1" r:id="rId8"/>
+    <sheet name="BuySell_Swing" sheetId="3" r:id="rId9"/>
+    <sheet name="Tech" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>trade_date</t>
   </si>
@@ -150,6 +151,9 @@
   </si>
   <si>
     <t>KTMSEQ</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -437,12 +441,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DDBA3CC0-4142-4151-939B-9504A4E48C72}" name="Table3" displayName="Table3" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29" xr:uid="{DDBA3CC0-4142-4151-939B-9504A4E48C72}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DDBA3CC0-4142-4151-939B-9504A4E48C72}" name="Table3" displayName="Table3" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{DDBA3CC0-4142-4151-939B-9504A4E48C72}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4C232E9E-A302-407A-AB7A-F9DD525BB924}" name="symbol"/>
     <tableColumn id="2" xr3:uid="{FFDC543A-2A75-4977-AD2B-CDC2E1DE5279}" name="buy_fee_pct"/>
     <tableColumn id="3" xr3:uid="{76B65376-9E96-452B-BFA7-773C8D831358}" name="sell_fee_pct"/>
+    <tableColumn id="4" xr3:uid="{4D3F4368-0F9C-4593-A1F6-C5F28D1B5FB6}" name="region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4E21B0-0AB8-4945-8D26-41FA090DDAC7}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -748,7 +753,7 @@
     <col min="3" max="3" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -758,8 +763,11 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -770,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -781,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -792,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -803,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -814,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -825,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -836,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -847,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -858,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -869,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -880,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -891,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -902,7 +910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -913,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1075,12 +1083,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524087AF-A327-4165-8F4F-F78353AF99DB}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2047-564B-4B60-B7A8-46B22C0EB157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4363E89B-9C99-42CC-BCF9-B8370B0EBB6A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1101,10 +1250,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
-        <v>45006</v>
+        <v>44859</v>
       </c>
       <c r="B2" s="13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>3</v>
@@ -1112,10 +1261,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45044</v>
+        <v>44890</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1123,10 +1272,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45054</v>
+        <v>44988</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1134,17 +1283,25 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45069</v>
+        <v>45049</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1155,11 +1312,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2047-564B-4B60-B7A8-46B22C0EB157}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>45006</v>
+      </c>
+      <c r="B2" s="13">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7F7564-9687-4926-AB29-E648F2238DDA}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1262,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C108D-02C9-4908-8EC7-FD09AE9A63C6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1370,7 +1614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2668CAC0-C61D-4E44-849E-AB5614A68443}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1455,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D46ADA-B82A-4796-98B1-65B8BB67968F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1550,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1632,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D99DDD9-AE9C-41BF-8AAC-074819DDF9C7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1753,145 +1997,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524087AF-A327-4165-8F4F-F78353AF99DB}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44770</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44791</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>44798</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>44869</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>44875</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>44932</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>44946</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TradeSimulation/data/Config-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Config-BuySellTrade.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA5FB08-B74A-49A0-BA89-5AD3E96262DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA733E-34E4-4345-AB6C-A6896B11C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
-    <sheet name="TH_0106-2608-23" sheetId="12" r:id="rId2"/>
-    <sheet name="TH_2606-2608-23" sheetId="11" r:id="rId3"/>
+    <sheet name="TH_260623-Now" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>trade_date</t>
   </si>
@@ -324,65 +323,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>958850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>508409</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171591</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F1BBFB-3F2A-4023-9610-1D451A5B4990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="958850" y="1524000"/>
-          <a:ext cx="7963309" cy="2736991"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176196</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>464102</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95433</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>622852</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1644650" y="1598596"/>
+          <a:off x="1143000" y="1884346"/>
           <a:ext cx="9874802" cy="3297437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1171,11 +1121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DEF7D2-2EBD-4C1A-A3B5-507F15A8635B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A969CD3-6F41-49F7-9D86-7F1C65B83668}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1148,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45084</v>
+        <v>45107</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1209,94 +1159,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45127</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45148</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45160</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A969CD3-6F41-49F7-9D86-7F1C65B83668}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B3">
         <v>20</v>

--- a/TradeSimulation/data/Config-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Config-BuySellTrade.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA733E-34E4-4345-AB6C-A6896B11C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B9FE6-CD77-4BA1-B3E1-EFDC64E5D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
     <sheet name="TH_260623-Now" sheetId="11" r:id="rId2"/>
+    <sheet name="TH-MyLike-07To09Y23" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>trade_date</t>
   </si>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t>KFTHAISM</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -357,6 +361,99 @@
         <a:xfrm>
           <a:off x="1143000" y="1884346"/>
           <a:ext cx="9874802" cy="3297437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235482</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B32E01-7C48-4418-BD2C-F51AE049F038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="2183566"/>
+          <a:ext cx="7347482" cy="2172691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>108117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430DF1FF-310B-4CED-8FE5-CB0815151B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8204200" y="1651000"/>
+          <a:ext cx="7004410" cy="3257717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A969CD3-6F41-49F7-9D86-7F1C65B83668}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1205,4 +1302,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F3B108-932D-4251-8D68-BC9BD824BEA7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" customWidth="1"/>
+    <col min="3" max="3" width="17.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TradeSimulation/data/Config-BuySellTrade.xlsx
+++ b/TradeSimulation/data/Config-BuySellTrade.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B9FE6-CD77-4BA1-B3E1-EFDC64E5D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D43283-80A7-4A12-AAD8-1AEA63C8480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee" sheetId="2" r:id="rId1"/>
     <sheet name="TH_260623-Now" sheetId="11" r:id="rId2"/>
     <sheet name="TH-MyLike-07To09Y23" sheetId="12" r:id="rId3"/>
+    <sheet name="WorldOct-Nov-23" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>trade_date</t>
   </si>
@@ -470,7 +471,7 @@
   <autoFilter ref="A1:D32" xr:uid="{DDBA3CC0-4142-4151-939B-9504A4E48C72}">
     <filterColumn colId="3">
       <filters>
-        <filter val="thai-small"/>
+        <filter val="fif"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -750,7 +751,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -788,7 +789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -816,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -858,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -872,7 +873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -928,7 +929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -942,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -970,7 +971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1308,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F3B108-932D-4251-8D68-BC9BD824BEA7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1422,4 +1423,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A5C73-A22A-43F2-B962-342E4FA826FB}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>